--- a/Main Board/MainBoardRev2c.xlsx
+++ b/Main Board/MainBoardRev2c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B08087-6B0A-45EC-981E-1217BEB21FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDE2456-5C2F-4593-9A8C-F729F7412E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1815" windowWidth="28065" windowHeight="16185" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="2400" yWindow="1155" windowWidth="21600" windowHeight="12645" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -2146,9 +2146,6 @@
     <t>R3, R7</t>
   </si>
   <si>
-    <t>RES 33.2 OHM 1% 1/4W 1206</t>
-  </si>
-  <si>
     <t>33.2K</t>
   </si>
   <si>
@@ -2978,6 +2975,9 @@
   </si>
   <si>
     <t>Suggested by users - not verified</t>
+  </si>
+  <si>
+    <t>RES 33.2K OHM 1% 1/4W 1206</t>
   </si>
 </sst>
 </file>
@@ -3099,7 +3099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3173,7 +3173,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3491,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +3516,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3557,8 +3556,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="28" t="s">
-        <v>682</v>
+      <c r="M3" s="27" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3566,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -3599,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3715,7 +3714,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>334</v>
@@ -4189,7 +4188,7 @@
         <v>366</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4228,7 +4227,7 @@
         <v>84</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4513,7 +4512,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M29" s="26"/>
     </row>
@@ -4528,11 +4527,11 @@
         <v>404</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>405</v>
+        <v>682</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
@@ -4542,13 +4541,13 @@
         <v>126</v>
       </c>
       <c r="J30" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="23" t="s">
         <v>647</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>648</v>
       </c>
       <c r="M30" s="26"/>
     </row>
@@ -5288,7 +5287,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M50" s="26"/>
     </row>
@@ -5377,11 +5376,11 @@
         <v>237</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>238</v>
@@ -5393,13 +5392,13 @@
         <v>126</v>
       </c>
       <c r="J53" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="23" t="s">
         <v>412</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>413</v>
       </c>
       <c r="M53" s="26"/>
     </row>
@@ -5414,11 +5413,11 @@
         <v>239</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>240</v>
@@ -5430,13 +5429,13 @@
         <v>126</v>
       </c>
       <c r="J54" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="M54" s="26"/>
     </row>
@@ -5510,7 +5509,7 @@
         <v>10</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M56" s="26"/>
     </row>
@@ -5547,7 +5546,7 @@
         <v>10</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M57" s="26"/>
     </row>
@@ -5636,11 +5635,11 @@
         <v>259</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>260</v>
@@ -5652,13 +5651,13 @@
         <v>126</v>
       </c>
       <c r="J60" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="23" t="s">
         <v>420</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>421</v>
       </c>
       <c r="M60" s="26"/>
     </row>
@@ -5784,7 +5783,7 @@
         <v>277</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
@@ -5792,19 +5791,19 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>280</v>
       </c>
       <c r="J64" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="23" t="s">
         <v>670</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="23" t="s">
-        <v>671</v>
       </c>
       <c r="M64" s="26"/>
     </row>
@@ -5973,13 +5972,13 @@
         <v>280</v>
       </c>
       <c r="J69" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="M69" s="26"/>
     </row>
@@ -6061,14 +6060,14 @@
         <v>330</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
@@ -6078,13 +6077,13 @@
         <v>280</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M72" s="26"/>
     </row>
@@ -6119,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M73" s="26"/>
     </row>
@@ -6135,7 +6134,6 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="27"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
@@ -6145,13 +6143,12 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
@@ -6161,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>9</v>
@@ -6174,19 +6171,19 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="J76" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="M76" s="26"/>
     </row>
@@ -6198,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>11</v>
@@ -6211,19 +6208,19 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="23" t="s">
         <v>436</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>437</v>
       </c>
       <c r="M77" s="26"/>
     </row>
@@ -6235,104 +6232,104 @@
         <v>2</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I78" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J78" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="23" t="s">
         <v>443</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78" s="23" t="s">
-        <v>444</v>
       </c>
       <c r="M78" s="26"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="J79" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="23" t="s">
         <v>451</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" s="23" t="s">
-        <v>452</v>
       </c>
       <c r="M79" s="26"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>635</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J80" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="J80" s="6" t="s">
+      <c r="K80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="23" t="s">
         <v>637</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" s="23" t="s">
-        <v>638</v>
       </c>
       <c r="M80" s="26"/>
     </row>
@@ -6344,32 +6341,32 @@
         <v>6</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>455</v>
-      </c>
       <c r="F81" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="23" t="s">
         <v>458</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="23" t="s">
-        <v>459</v>
       </c>
       <c r="M81" s="26"/>
     </row>
@@ -6381,35 +6378,35 @@
         <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>462</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="J82" s="6" t="s">
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" s="23" t="s">
-        <v>465</v>
-      </c>
       <c r="M82" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6420,32 +6417,32 @@
         <v>2</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>467</v>
-      </c>
       <c r="E83" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="23" t="s">
         <v>469</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="23" t="s">
-        <v>470</v>
       </c>
       <c r="M83" s="26"/>
     </row>
@@ -6457,32 +6454,32 @@
         <v>1</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="J84" s="6" t="s">
+      <c r="K84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="M84" s="26"/>
     </row>
@@ -6494,32 +6491,32 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="E85" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J85" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="J85" s="6" t="s">
+      <c r="K85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="24" t="s">
         <v>480</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" s="24" t="s">
-        <v>481</v>
       </c>
       <c r="M85" s="26"/>
     </row>
@@ -6531,33 +6528,33 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="I86" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="J86" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" s="23" t="s">
-        <v>487</v>
-      </c>
       <c r="M86" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -6568,30 +6565,30 @@
         <v>1</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="I87" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="J87" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="23" t="s">
         <v>493</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>494</v>
       </c>
       <c r="M87" s="26"/>
     </row>
@@ -6603,30 +6600,30 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I88" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="J88" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="23" t="s">
         <v>499</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>500</v>
       </c>
       <c r="M88" s="26"/>
     </row>
@@ -6638,30 +6635,30 @@
         <v>2</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="J89" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="23" t="s">
         <v>505</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="23" t="s">
-        <v>506</v>
       </c>
       <c r="M89" s="26"/>
     </row>
@@ -6673,30 +6670,30 @@
         <v>2</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="I90" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="J90" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="23" t="s">
         <v>511</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>512</v>
       </c>
       <c r="M90" s="26"/>
     </row>
@@ -6708,30 +6705,30 @@
         <v>2</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="J91" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="23" t="s">
         <v>517</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="23" t="s">
-        <v>518</v>
       </c>
       <c r="M91" s="26"/>
     </row>
@@ -6743,30 +6740,30 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="I92" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="J92" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="23" t="s">
         <v>523</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" s="23" t="s">
-        <v>524</v>
       </c>
       <c r="M92" s="26"/>
     </row>
@@ -6778,30 +6775,30 @@
         <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="23" t="s">
         <v>528</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="23" t="s">
-        <v>529</v>
       </c>
       <c r="M93" s="26"/>
     </row>
@@ -6813,30 +6810,30 @@
         <v>5</v>
       </c>
       <c r="C94" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="23" t="s">
         <v>533</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" s="23" t="s">
-        <v>534</v>
       </c>
       <c r="M94" s="26"/>
     </row>
@@ -6848,30 +6845,30 @@
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="23" t="s">
         <v>538</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="23" t="s">
-        <v>539</v>
       </c>
       <c r="M95" s="26"/>
     </row>
@@ -6883,30 +6880,30 @@
         <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I96" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="J96" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="23" t="s">
         <v>544</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="23" t="s">
-        <v>545</v>
       </c>
       <c r="M96" s="26"/>
     </row>
@@ -6918,30 +6915,30 @@
         <v>2</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="I97" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="J97" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="23" t="s">
         <v>550</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="23" t="s">
-        <v>551</v>
       </c>
       <c r="M97" s="26"/>
     </row>
@@ -6953,30 +6950,30 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J98" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="J98" s="6" t="s">
+      <c r="K98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" s="23" t="s">
         <v>556</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" s="23" t="s">
-        <v>557</v>
       </c>
       <c r="M98" s="26"/>
     </row>
@@ -6988,30 +6985,30 @@
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="J99" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="23" t="s">
         <v>562</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="23" t="s">
-        <v>563</v>
       </c>
       <c r="M99" s="26"/>
     </row>
@@ -7023,10 +7020,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
@@ -7036,19 +7033,19 @@
         <v>86</v>
       </c>
       <c r="H100" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I100" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="J100" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="K100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="23" t="s">
         <v>568</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="23" t="s">
-        <v>569</v>
       </c>
       <c r="M100" s="26"/>
     </row>
@@ -7060,10 +7057,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
@@ -7073,19 +7070,19 @@
         <v>88</v>
       </c>
       <c r="H101" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I101" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="J101" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="23" t="s">
         <v>572</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="23" t="s">
-        <v>573</v>
       </c>
       <c r="M101" s="26"/>
     </row>
@@ -7097,32 +7094,32 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="H102" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="J102" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="J102" s="6" t="s">
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="23" t="s">
         <v>578</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="23" t="s">
-        <v>579</v>
       </c>
       <c r="M102" s="26"/>
     </row>
@@ -7134,10 +7131,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
@@ -7147,19 +7144,19 @@
         <v>90</v>
       </c>
       <c r="H103" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I103" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="J103" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="23" t="s">
         <v>582</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="23" t="s">
-        <v>583</v>
       </c>
       <c r="M103" s="26"/>
     </row>
@@ -7171,32 +7168,32 @@
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H104" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="I104" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="J104" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="23" t="s">
         <v>589</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="23" t="s">
-        <v>590</v>
       </c>
       <c r="M104" s="26"/>
     </row>
@@ -7208,32 +7205,32 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="J105" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="J105" s="6" t="s">
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="23" t="s">
         <v>594</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="23" t="s">
-        <v>595</v>
       </c>
       <c r="M105" s="26"/>
     </row>
@@ -7245,10 +7242,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
@@ -7258,54 +7255,54 @@
         <v>92</v>
       </c>
       <c r="H106" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I106" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I106" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="J106" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="23" t="s">
         <v>598</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L106" s="23" t="s">
-        <v>599</v>
       </c>
       <c r="M106" s="26"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J107" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="23" t="s">
         <v>629</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="23" t="s">
-        <v>630</v>
       </c>
       <c r="M107" s="26"/>
     </row>
@@ -7317,65 +7314,65 @@
         <v>2</v>
       </c>
       <c r="C108" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J108" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" s="23" t="s">
         <v>631</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L108" s="23" t="s">
-        <v>632</v>
       </c>
       <c r="M108" s="26"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J109" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M109" s="26"/>
     </row>
@@ -7387,30 +7384,30 @@
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="I110" s="6" t="s">
+      <c r="J110" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" s="23" t="s">
         <v>609</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L110" s="23" t="s">
-        <v>610</v>
       </c>
       <c r="M110" s="26"/>
     </row>
@@ -7422,30 +7419,30 @@
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="J111" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L111" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="M111" s="26"/>
     </row>
@@ -7457,30 +7454,30 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="I112" s="6" t="s">
-        <v>621</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M112" s="26"/>
     </row>
@@ -7492,30 +7489,30 @@
         <v>26</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="I113" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>625</v>
-      </c>
       <c r="L113" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M113" s="26"/>
     </row>
@@ -7547,76 +7544,76 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B116" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B118" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="D118" t="s">
         <v>640</v>
-      </c>
-      <c r="D118" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B119" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D119" t="s">
         <v>649</v>
-      </c>
-      <c r="D119" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D129" t="s">
         <v>672</v>
-      </c>
-      <c r="D129" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>
